--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>text_verify</t>
   </si>
   <si>
-    <t>011_url_windows</t>
-  </si>
-  <si>
-    <t>011_new_tab</t>
-  </si>
-  <si>
     <t>url_verify</t>
   </si>
   <si>
@@ -39,13 +33,67 @@
     <t>Knowledge increases by sharing but not by saving.</t>
   </si>
   <si>
-    <t>011_about_blank_window</t>
-  </si>
-  <si>
     <t>TS#_name</t>
   </si>
   <si>
     <t>browser-windows</t>
+  </si>
+  <si>
+    <t>012_url_windows</t>
+  </si>
+  <si>
+    <t>012_new_tab</t>
+  </si>
+  <si>
+    <t>012_about_blank_window</t>
+  </si>
+  <si>
+    <t>013_url_alerts</t>
+  </si>
+  <si>
+    <t>alerts</t>
+  </si>
+  <si>
+    <t>013_alert</t>
+  </si>
+  <si>
+    <t>You clicked a button</t>
+  </si>
+  <si>
+    <t>013_delayed_alert</t>
+  </si>
+  <si>
+    <t>This alert appeared after 5 seconds</t>
+  </si>
+  <si>
+    <t>Do you confirm action?</t>
+  </si>
+  <si>
+    <t>013_confirm_accept</t>
+  </si>
+  <si>
+    <t>You selected Ok</t>
+  </si>
+  <si>
+    <t>You selected Cancel</t>
+  </si>
+  <si>
+    <t>text_verify_2</t>
+  </si>
+  <si>
+    <t>013_confirm_dismiss</t>
+  </si>
+  <si>
+    <t>013_prompt</t>
+  </si>
+  <si>
+    <t>Please enter your name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Abudintark</t>
   </si>
 </sst>
 </file>
@@ -378,54 +426,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>text_verify</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Abudintark</t>
+  </si>
+  <si>
+    <t>014_url_frames</t>
+  </si>
+  <si>
+    <t>frames</t>
+  </si>
+  <si>
+    <t>014_iframe_1</t>
+  </si>
+  <si>
+    <t>014_iframe_2</t>
   </si>
 </sst>
 </file>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -538,6 +550,30 @@
       </c>
       <c r="E10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>text_verify</t>
   </si>
@@ -106,13 +106,49 @@
   </si>
   <si>
     <t>014_iframe_2</t>
+  </si>
+  <si>
+    <t>015_url_nested_frames</t>
+  </si>
+  <si>
+    <t>nestedframes</t>
+  </si>
+  <si>
+    <t>Parent frame</t>
+  </si>
+  <si>
+    <t>015_parent_frame</t>
+  </si>
+  <si>
+    <t>015_child_frame</t>
+  </si>
+  <si>
+    <t>Child Iframe</t>
+  </si>
+  <si>
+    <t>016_url_modal_dialogs</t>
+  </si>
+  <si>
+    <t>modal-dialogs</t>
+  </si>
+  <si>
+    <t>This is a small modal</t>
+  </si>
+  <si>
+    <t>016_small_modal</t>
+  </si>
+  <si>
+    <t>016_large_modal</t>
+  </si>
+  <si>
+    <t>standard dummy text ever since the 1500s,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +156,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,8 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -438,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -574,6 +617,54 @@
       </c>
       <c r="B13" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>text_verify</t>
   </si>
@@ -142,6 +142,45 @@
   </si>
   <si>
     <t>standard dummy text ever since the 1500s,</t>
+  </si>
+  <si>
+    <t>accordian</t>
+  </si>
+  <si>
+    <t>017_url_accordion</t>
+  </si>
+  <si>
+    <t>attribute_value</t>
+  </si>
+  <si>
+    <t>017_accordion_collapsed</t>
+  </si>
+  <si>
+    <t>017_accordion_expanded</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>collapse show</t>
+  </si>
+  <si>
+    <t>018_url_auto_complete</t>
+  </si>
+  <si>
+    <t>auto-complete</t>
+  </si>
+  <si>
+    <t>018_multiple_colors_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Green Yellow Red</t>
+  </si>
+  <si>
+    <t>018_single_color_field</t>
+  </si>
+  <si>
+    <t>Indigo</t>
   </si>
 </sst>
 </file>
@@ -481,20 +520,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -510,8 +552,11 @@
       <c r="E1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -519,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -530,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -538,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -546,7 +591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -554,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -562,7 +607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -573,7 +618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -584,7 +629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -595,7 +640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -603,7 +648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -611,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -619,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -627,7 +672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -635,7 +680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -643,7 +688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -651,7 +696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -659,12 +704,60 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>text_verify</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>Indigo</t>
+  </si>
+  <si>
+    <t>date-picker</t>
+  </si>
+  <si>
+    <t>019_url_date_picker</t>
+  </si>
+  <si>
+    <t>019_date_picker</t>
+  </si>
+  <si>
+    <t>June 11 2001</t>
+  </si>
+  <si>
+    <t>019_date_and_time_picker</t>
+  </si>
+  <si>
+    <t>October 2 1879</t>
   </si>
 </sst>
 </file>
@@ -520,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -758,6 +776,30 @@
       </c>
       <c r="B25" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -198,7 +198,7 @@
     <t>019_date_and_time_picker</t>
   </si>
   <si>
-    <t>October 2 1879</t>
+    <t>October 02 1979 22:45</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>text_verify</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>October 02 1979 22:45</t>
+  </si>
+  <si>
+    <t>020_url_slider</t>
+  </si>
+  <si>
+    <t>slider</t>
+  </si>
+  <si>
+    <t>020_thumb_original_position</t>
+  </si>
+  <si>
+    <t>020_slider</t>
+  </si>
+  <si>
+    <t>100 270 -100 -270</t>
   </si>
 </sst>
 </file>
@@ -241,9 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -800,6 +818,30 @@
       </c>
       <c r="B28" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>text_verify</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>100 270 -100 -270</t>
+  </si>
+  <si>
+    <t>progress-bar</t>
+  </si>
+  <si>
+    <t>021_url_progress_bar</t>
+  </si>
+  <si>
+    <t>021_start_position</t>
+  </si>
+  <si>
+    <t>021_progress</t>
+  </si>
+  <si>
+    <t>rgb(33, 37, 41)</t>
+  </si>
+  <si>
+    <t>021_completed</t>
+  </si>
+  <si>
+    <t>rgb(40, 167, 69)</t>
   </si>
 </sst>
 </file>
@@ -556,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -842,6 +863,44 @@
       </c>
       <c r="B31" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>text_verify</t>
   </si>
@@ -235,6 +235,30 @@
   </si>
   <si>
     <t>rgb(40, 167, 69)</t>
+  </si>
+  <si>
+    <t>022_url_tabs</t>
+  </si>
+  <si>
+    <t>tabs</t>
+  </si>
+  <si>
+    <t>023_url_tooltips</t>
+  </si>
+  <si>
+    <t>tool-tips</t>
+  </si>
+  <si>
+    <t>024_url_menu</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>024_dropdown_main_item_2</t>
   </si>
 </sst>
 </file>
@@ -577,15 +601,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -901,6 +925,38 @@
       </c>
       <c r="C35" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>text_verify</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>024_dropdown_main_item_2</t>
+  </si>
+  <si>
+    <t>025_url_select_menu</t>
+  </si>
+  <si>
+    <t>select-menu</t>
   </si>
 </sst>
 </file>
@@ -601,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -957,6 +963,14 @@
       </c>
       <c r="B39" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>text_verify</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>select-menu</t>
+  </si>
+  <si>
+    <t>026_url_sortable</t>
+  </si>
+  <si>
+    <t>sortable</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -971,6 +977,14 @@
       </c>
       <c r="B40" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>text_verify</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>sortable</t>
+  </si>
+  <si>
+    <t>selectable</t>
+  </si>
+  <si>
+    <t>027_url_selectable</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>027_selectable</t>
   </si>
 </sst>
 </file>
@@ -613,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -985,6 +997,22 @@
       </c>
       <c r="B41" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>text_verify</t>
   </si>
@@ -283,6 +283,33 @@
   </si>
   <si>
     <t>027_selectable</t>
+  </si>
+  <si>
+    <t>resizable</t>
+  </si>
+  <si>
+    <t>028_url_resizable</t>
+  </si>
+  <si>
+    <t>height: 200, width: 200</t>
+  </si>
+  <si>
+    <t>028_restricted_box_min</t>
+  </si>
+  <si>
+    <t>height: 150, width: 150</t>
+  </si>
+  <si>
+    <t>028_box_original_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> width: 2</t>
+  </si>
+  <si>
+    <t>height: 2</t>
+  </si>
+  <si>
+    <t>028_unrestricted_box_min</t>
   </si>
 </sst>
 </file>
@@ -625,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1013,6 +1040,41 @@
       </c>
       <c r="B43" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data_excel.xlsx
+++ b/data/test_data_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
   <si>
     <t>text_verify</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>028_unrestricted_box_min</t>
+  </si>
+  <si>
+    <t>029_url_droppable</t>
+  </si>
+  <si>
+    <t>droppable</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1075,6 +1081,14 @@
       </c>
       <c r="C47" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
